--- a/public/已买的店铺.xlsx
+++ b/public/已买的店铺.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:A90"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/public/已买的店铺.xlsx
+++ b/public/已买的店铺.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>弘通话费充值专营店</t>
   </si>
@@ -229,6 +229,27 @@
   </si>
   <si>
     <t>铭宝话费充值专营店</t>
+  </si>
+  <si>
+    <t>极客笑名堂</t>
+  </si>
+  <si>
+    <t>宜购百货店</t>
+  </si>
+  <si>
+    <t>国际电工企业直销店</t>
+  </si>
+  <si>
+    <t>精一电子元器件直销店</t>
+  </si>
+  <si>
+    <t>久久照明工厂店</t>
+  </si>
+  <si>
+    <t>万顺伟业电子  IC元器件批发</t>
+  </si>
+  <si>
+    <t>深圳市鑫顺鼎盛电子企业店</t>
   </si>
 </sst>
 </file>
@@ -554,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,618 +589,618 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1">
-        <v>43731</v>
+        <v>43736</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1">
-        <v>43729</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1">
-        <v>43728</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>43727</v>
+        <v>43734</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
-        <v>43726</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
-        <v>43726</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1">
-        <v>43726</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
-        <v>43725</v>
+        <v>43733</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1">
-        <v>43724</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>43724</v>
+        <v>43732</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1">
-        <v>43724</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>43723</v>
+        <v>43731</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>43722</v>
+        <v>43729</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>43721</v>
+        <v>43728</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>43721</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>43721</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>43720</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>43719</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
-        <v>43718</v>
+        <v>43725</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
-        <v>43718</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>43717</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>43717</v>
+        <v>43724</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
-        <v>43717</v>
+        <v>43723</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
-        <v>43717</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>43716</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
-        <v>43715</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1">
-        <v>43715</v>
+        <v>43721</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
-        <v>43714</v>
+        <v>43720</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
-        <v>43714</v>
+        <v>43719</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1">
-        <v>43713</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
-        <v>43713</v>
+        <v>43718</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1">
-        <v>43712</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1">
-        <v>43712</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1">
-        <v>43712</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1">
-        <v>43711</v>
+        <v>43717</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1">
-        <v>43710</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1">
-        <v>43710</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1">
-        <v>43709</v>
+        <v>43715</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B39" s="1">
-        <v>43709</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
-        <v>43709</v>
+        <v>43714</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B41" s="1">
-        <v>43708</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1">
-        <v>43708</v>
+        <v>43713</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1">
-        <v>43707</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1">
-        <v>43707</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1">
-        <v>43707</v>
+        <v>43712</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1">
-        <v>43706</v>
+        <v>43711</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1">
-        <v>43706</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B48" s="1">
-        <v>43706</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B49" s="1">
-        <v>43704</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B50" s="1">
-        <v>43703</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1">
-        <v>43702</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1">
-        <v>43700</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1">
-        <v>43700</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B54" s="1">
-        <v>43698</v>
+        <v>43707</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1">
-        <v>43697</v>
+        <v>43707</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1">
-        <v>43697</v>
+        <v>43707</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1">
-        <v>43696</v>
+        <v>43706</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1">
-        <v>43696</v>
+        <v>43706</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B59" s="1">
-        <v>43695</v>
+        <v>43706</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1">
-        <v>43695</v>
+        <v>43704</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1">
-        <v>43695</v>
+        <v>43703</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B62" s="1">
-        <v>43695</v>
+        <v>43702</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B63" s="1">
-        <v>43694</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B64" s="1">
-        <v>43693</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B65" s="1">
-        <v>43692</v>
+        <v>43698</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B66" s="1">
-        <v>43691</v>
+        <v>43697</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B67" s="1">
-        <v>43689</v>
+        <v>43697</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B68" s="1">
-        <v>43689</v>
+        <v>43696</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B69" s="1">
-        <v>43688</v>
+        <v>43696</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B70" s="1">
-        <v>43688</v>
+        <v>43695</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B71" s="1">
-        <v>43685</v>
+        <v>43695</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B72" s="1">
-        <v>43681</v>
+        <v>43695</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B73" s="1">
-        <v>43679</v>
+        <v>43695</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B74" s="1">
-        <v>43678</v>
+        <v>43694</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B75" s="1">
-        <v>43677</v>
+        <v>43693</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B76" s="1">
-        <v>43677</v>
+        <v>43692</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1">
-        <v>43676</v>
+        <v>43691</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,102 +1208,190 @@
         <v>36</v>
       </c>
       <c r="B78" s="1">
-        <v>43674</v>
+        <v>43689</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B79" s="1">
-        <v>43674</v>
+        <v>43689</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B80" s="1">
-        <v>43673</v>
+        <v>43688</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B81" s="1">
-        <v>43672</v>
+        <v>43688</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B82" s="1">
-        <v>43672</v>
+        <v>43685</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B83" s="1">
-        <v>43670</v>
+        <v>43681</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1">
-        <v>43669</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B85" s="1">
-        <v>43669</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B86" s="1">
-        <v>43667</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B87" s="1">
-        <v>43667</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B88" s="1">
-        <v>43661</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B89" s="1">
-        <v>43661</v>
+        <v>43674</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="1">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B101" s="1">
         <v>43661</v>
       </c>
     </row>
